--- a/test.xlsx
+++ b/test.xlsx
@@ -55,7 +55,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:V79"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -181,22 +181,22 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>County Check</t>
+          <t>GIS Check</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>214</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Upper</t>
+          <t>Prospect</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -216,7 +216,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t/>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -236,12 +236,12 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>18-07-201-007</t>
+          <t>18-07-260-001</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>Residential</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -261,12 +261,12 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>16506</t>
+          <t>1592</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>60501</t>
+          <t>1566</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
@@ -281,7 +281,7 @@
       </c>
       <c r="V2" t="inlineStr">
         <is>
-          <t>Cambridge Mobile Home Park</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -298,17 +298,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>221</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Upper</t>
+          <t>1st</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -328,7 +328,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t/>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -348,7 +348,7 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>18-07-201-007</t>
+          <t>1807308031</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
@@ -368,17 +368,17 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180004</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>16506</t>
+          <t>8811</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>60501</t>
+          <t>61522</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
@@ -393,7 +393,7 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>Cambridge Mobile Home Park</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -410,12 +410,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>292</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -460,12 +460,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>18-08-351-035</t>
+          <t>18-08-351-008</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Rel, Health, Pub Building</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -485,12 +485,12 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>12300</t>
+          <t/>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>406300</t>
+          <t/>
         </is>
       </c>
       <c r="T4" t="inlineStr">
@@ -517,22 +517,22 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Secondary Map Check</t>
+          <t>GIS Check</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>301</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>North</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -572,12 +572,12 @@
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>18-07-260-014</t>
+          <t>18-07-227-002</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Rel, Health, Pub Building</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -592,17 +592,17 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180004</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t/>
+          <t>9885</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t/>
+          <t>58857</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>Might be 101 E Exchange St, Cambridge, IL (this address is the Water Dept.)</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -629,12 +629,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>302</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -644,7 +644,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>South</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -684,12 +684,12 @@
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>18-07-260-012</t>
+          <t>18-07-476-004</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Industrial</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>5358</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>7695</t>
+          <t>44461</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
@@ -746,17 +746,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>303</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Pleasant</t>
+          <t>Center</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -796,12 +796,12 @@
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>18-07-426-012</t>
+          <t>18-07-426-008</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Rel, Health, Pub Building</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -821,12 +821,12 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t/>
+          <t>6579</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t/>
+          <t>9474</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
@@ -841,7 +841,7 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Waterworks Modem</t>
+          <t>303 1/2 E Center St, Cambridge, IL</t>
         </is>
       </c>
     </row>
@@ -853,12 +853,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>County Check</t>
+          <t>GIS Check</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>104</t>
+          <t>305</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -868,7 +868,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>Center</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -908,7 +908,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>18-07-264-004</t>
+          <t>18-07-426-010</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -933,12 +933,12 @@
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>2254</t>
+          <t>637</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>2281</t>
+          <t>2096</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
@@ -965,22 +965,22 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>310</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>Ridge</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1020,12 +1020,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>18-07-260-013</t>
+          <t>18-07-454-008</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t/>
+          <t>Residential</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>664</t>
+          <t>6468</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>2933</t>
+          <t>50079</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
@@ -1065,7 +1065,7 @@
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>Shares a building with 103 E Exchange St, Cambridge, IL Rathjen Machine &amp; Tool Co / Sewage Treatment Plant</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1082,7 +1082,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>105</t>
+          <t>311</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1092,7 +1092,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Railroad</t>
+          <t>North</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1132,7 +1132,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>18-07-252-005</t>
+          <t>1807226001</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1157,12 +1157,12 @@
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>2150</t>
+          <t>84</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>9710</t>
+          <t>27626</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
@@ -1177,7 +1177,7 @@
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t/>
+          <t>Henry County Fair Association</t>
         </is>
       </c>
     </row>
@@ -1189,22 +1189,22 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>312</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>CouRT St</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1244,12 +1244,12 @@
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>18-07-181-027</t>
+          <t>18-07-433-021</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>Rel, Health, Pub Building</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1269,12 +1269,12 @@
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t/>
+          <t>5493</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t/>
+          <t>51595</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1289,7 +1289,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>Falls under 101 N East St, Cambridge, IL parcel 18-07-181-027 GROW Ministries, Inc.</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1301,22 +1301,22 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>319</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>E</t>
+          <t>W</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>CouRT St</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1356,12 +1356,12 @@
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>18-07-260-012</t>
+          <t>18-07-328-028</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t/>
+          <t>Rel, Health, Pub Building</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1376,17 +1376,17 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180004</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t/>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>7695</t>
+          <t/>
         </is>
       </c>
       <c r="T12" t="inlineStr">
@@ -1401,7 +1401,7 @@
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>Appears to share a building with 103 E Exchange St, Cambridge, IL</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>County Check</t>
+          <t>GIS Check</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>321</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1428,7 +1428,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Railroad</t>
+          <t>North</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>18-07-254-010</t>
+          <t>18-07-176-018</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
@@ -1488,17 +1488,17 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180004</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>4389</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>9620</t>
+          <t>38704</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
@@ -1513,7 +1513,7 @@
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>107 W Railroad Ave, Cambridge, IL</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>324</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1540,12 +1540,12 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Railroad</t>
+          <t>Locust</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>AVE</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -1580,12 +1580,12 @@
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>18-07-254-010</t>
+          <t>18-07-176-020</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180004</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>5954</t>
+          <t>5558</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>9620</t>
+          <t>31587</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
@@ -1642,17 +1642,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>401</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Locust</t>
+          <t>West</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1692,7 +1692,7 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>18-07-255-010</t>
+          <t>18-07-102-019</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
@@ -1717,12 +1717,12 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>6091</t>
+          <t>5679</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>7880</t>
+          <t>6608</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
@@ -1737,7 +1737,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t/>
+          <t>Appears to be located within the unnamed parcel 18-07-102-019</t>
         </is>
       </c>
     </row>
@@ -1749,22 +1749,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>County Check</t>
+          <t>GIS Check</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>412</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Pleasant</t>
+          <t>Center</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1804,12 +1804,12 @@
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>18-07-284-011</t>
+          <t>18-07-431-009</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Residential</t>
+          <t>Commercial</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -1829,12 +1829,12 @@
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>5019</t>
+          <t>4550</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>42981</t>
+          <t>6585</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
@@ -1866,17 +1866,17 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>108</t>
+          <t>413</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Upper</t>
+          <t>East</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1916,12 +1916,12 @@
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>18-07-201-005</t>
+          <t>18-07-132-006</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t/>
+          <t>Residential</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -1941,12 +1941,12 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6351</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44493</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
@@ -1973,22 +1973,22 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>109</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>Prospect</t>
+          <t>CouRT St</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -2028,7 +2028,7 @@
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18-07-263-024</t>
+          <t>18-07-430-004</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
@@ -2053,12 +2053,12 @@
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>3476</t>
+          <t>5309</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>20538</t>
+          <t>8665</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
@@ -2085,22 +2085,22 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>500</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>CouRT St</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -2140,7 +2140,7 @@
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18-07-258-014</t>
+          <t>18-07-435-002</t>
         </is>
       </c>
       <c r="N19" t="inlineStr">
@@ -2165,12 +2165,12 @@
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>1181</t>
+          <t>12616</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>15139</t>
+          <t>122687</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
@@ -2197,22 +2197,22 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>504</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>West</t>
+          <t>Prospect</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -2252,12 +2252,12 @@
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>18-07-307-012</t>
+          <t>18-07-203-004</t>
         </is>
       </c>
       <c r="N20" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Rel, Health, Pub Building</t>
         </is>
       </c>
       <c r="O20" t="inlineStr">
@@ -2272,17 +2272,17 @@
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180004</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>5095</t>
+          <t/>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>60103</t>
+          <t/>
         </is>
       </c>
       <c r="T20" t="inlineStr">
@@ -2314,17 +2314,17 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>506</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Center</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -2364,12 +2364,12 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>18-07-263-027</t>
+          <t>18-07-431-005</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
@@ -2389,12 +2389,12 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>5843</t>
+          <t>8093</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>22076</t>
+          <t>13612</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
@@ -2409,7 +2409,7 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>114-116 N East St, Cambridge, IL</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>117</t>
+          <t>512</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -2476,12 +2476,12 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>18-07-263-021</t>
+          <t>1807203002</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
@@ -2501,12 +2501,12 @@
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>2405</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5572</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
@@ -2533,12 +2533,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>118</t>
+          <t>515</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>CouRT St</t>
+          <t>Upper</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -2588,12 +2588,12 @@
       </c>
       <c r="M23" t="inlineStr">
         <is>
-          <t>18-07-404-021</t>
+          <t>18-07-102-016</t>
         </is>
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="O23" t="inlineStr">
@@ -2608,17 +2608,17 @@
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180004</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>3383</t>
+          <t>3795</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>26655</t>
+          <t>42636</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
@@ -2645,22 +2645,22 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>601</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>CouRT St</t>
+          <t>Holmes</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -2700,12 +2700,12 @@
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>18-07-407-001</t>
+          <t>18-07-201-010</t>
         </is>
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="O24" t="inlineStr">
@@ -2725,12 +2725,12 @@
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>3343</t>
+          <t>6953</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>11637</t>
+          <t>26301</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
@@ -2762,17 +2762,17 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>702</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Center</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -2812,12 +2812,12 @@
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>18-08-302-006</t>
+          <t>17-12-200-015</t>
         </is>
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t/>
         </is>
       </c>
       <c r="O25" t="inlineStr">
@@ -2832,17 +2832,17 @@
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>180004</t>
+          <t>170009</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t/>
+          <t>1640</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t/>
+          <t>389</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
@@ -2857,7 +2857,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Might be Henry County Animal Control - 119 S East Rd, Cambridge, IL</t>
+          <t>Shed</t>
         </is>
       </c>
     </row>
@@ -2874,22 +2874,22 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>119</t>
+          <t>9701</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>Illinois Highway</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t/>
         </is>
       </c>
       <c r="G26" t="inlineStr">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="M26" t="inlineStr">
         <is>
-          <t>18-07-263-010</t>
+          <t>18-18-200-002</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
@@ -2944,17 +2944,17 @@
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180004</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>1140</t>
+          <t>47530</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>10190</t>
+          <t>113621</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
@@ -2969,7 +2969,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t/>
+          <t>9701 IL Hwy 82, Cambridge, IL</t>
         </is>
       </c>
     </row>
@@ -2981,27 +2981,27 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>120</t>
+          <t>11963</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>Bowling</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>RD</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
@@ -3036,12 +3036,12 @@
       </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>18-07-258-027</t>
+          <t>17-12-200-010</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Rel, Health, Pub Building</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
@@ -3056,17 +3056,17 @@
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>180004</t>
+          <t>170009</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t/>
+          <t>5705</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t/>
+          <t>34883</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
@@ -3081,7 +3081,7 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>United Methodist Church</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -3093,27 +3093,27 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>County Check</t>
+          <t>GIS Check</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>13036</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>IL-81</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t/>
         </is>
       </c>
       <c r="G28" t="inlineStr">
@@ -3148,7 +3148,7 @@
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>18-07-404-010</t>
+          <t>18-08-303-010</t>
         </is>
       </c>
       <c r="N28" t="inlineStr">
@@ -3173,12 +3173,12 @@
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>5300</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>8384</t>
+          <t>86462</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t/>
+          <t>Falls under parcel 133 S East Rd, Cambridge, IL</t>
         </is>
       </c>
     </row>
@@ -3210,22 +3210,22 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>13081</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t/>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>Illinois Highway</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t/>
         </is>
       </c>
       <c r="G29" t="inlineStr">
@@ -3260,7 +3260,7 @@
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>18-07-263-009</t>
+          <t>18-08-303-008</t>
         </is>
       </c>
       <c r="N29" t="inlineStr">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>IL</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
@@ -3285,12 +3285,12 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>2163</t>
+          <t>18338</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23537</t>
+          <t>232208</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t/>
+          <t>Gold Star FS (Cambridge IL Service Center) For some reason the actual street IL-81 was cut off in the upload</t>
         </is>
       </c>
     </row>
@@ -3317,27 +3317,27 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>County Check</t>
+          <t>GIS Check</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>13125</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>N</t>
+          <t/>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>Illinois Highway</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t/>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -3372,7 +3372,7 @@
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>1807263003</t>
+          <t>18-08-351-035</t>
         </is>
       </c>
       <c r="N30" t="inlineStr">
@@ -3392,17 +3392,17 @@
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180007</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>1182</t>
+          <t>12300</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>12286</t>
+          <t>406300</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
@@ -3417,7 +3417,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t/>
+          <t>13125 IL Hwy 81, Cambridge, IL Appears to be labelled as parcel 101 N East St, Cambridge, IL</t>
         </is>
       </c>
     </row>
@@ -3429,27 +3429,27 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>County Check</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>13429</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>S</t>
+          <t/>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>IL-81</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t/>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -3484,12 +3484,12 @@
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>18-07-404-011</t>
+          <t>18-08-377-006</t>
         </is>
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Industrial</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -3504,17 +3504,17 @@
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180006</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>889</t>
+          <t>18517</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>4605</t>
+          <t>663464</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
@@ -3529,7 +3529,7 @@
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t/>
+          <t>13429 IL Hwy 81, Cambridge, IL</t>
         </is>
       </c>
     </row>
@@ -3541,22 +3541,22 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>COUNTY CHECK</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>PROSPECT</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K32" t="inlineStr">
@@ -3596,22 +3596,22 @@
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>18-07-263-001</t>
+          <t>18-07-402-003</t>
         </is>
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
@@ -3621,12 +3621,12 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>1553</t>
+          <t>8392</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>10242</t>
+          <t>58617</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
@@ -3653,22 +3653,22 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>COUNTY CHECK</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>E</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>UPPER</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -3688,12 +3688,12 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t/>
+          <t>2</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
@@ -3708,22 +3708,22 @@
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>18-07-258-031</t>
+          <t>18-07-201-007</t>
         </is>
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -3733,12 +3733,12 @@
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>16506</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>36341</t>
+          <t>60501</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
@@ -3753,7 +3753,7 @@
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t/>
+          <t>CAMBRIDGE MOBILE HOME PARK</t>
         </is>
       </c>
     </row>
@@ -3765,27 +3765,27 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>GIS CHECK</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>125</t>
+          <t>108</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>W</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>LOCUST</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>RD</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -3805,7 +3805,7 @@
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K34" t="inlineStr">
@@ -3820,22 +3820,22 @@
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>18-08-303-009</t>
+          <t>18-07-255-010</t>
         </is>
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
@@ -3845,12 +3845,12 @@
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>2483</t>
+          <t>6091</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>13336</t>
+          <t>7880</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
@@ -3877,22 +3877,22 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>GIS CHECK</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>117</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Exchange</t>
+          <t>PROSPECT</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -3917,7 +3917,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -3932,22 +3932,22 @@
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>18-07-258-031</t>
+          <t>18-07-263-021</t>
         </is>
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
@@ -3957,12 +3957,12 @@
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>36341</t>
+          <t>5572</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>Appears to share a building with 124 W Exchange St, Cambridge, IL</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -3989,22 +3989,22 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>County Check</t>
+          <t>GIS CHECK</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>119</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>EAST</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -4029,7 +4029,7 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
@@ -4044,27 +4044,27 @@
       </c>
       <c r="M36" t="inlineStr">
         <is>
-          <t>1807181026</t>
+          <t>18-08-302-006</t>
         </is>
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Rel, Health, Pub Building</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180004</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
@@ -4089,7 +4089,7 @@
       </c>
       <c r="V36" t="inlineStr">
         <is>
-          <t>Cambridge Community Hall</t>
+          <t>MIGHT BE HENRY COUNTY ANIMAL CONTROL - 119 S EAST RD CAMBRIDGE IL</t>
         </is>
       </c>
     </row>
@@ -4101,22 +4101,22 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>GIS CHECK</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>127</t>
+          <t>120</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>W</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Prospect</t>
+          <t>EXCHANGE</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
@@ -4156,37 +4156,37 @@
       </c>
       <c r="M37" t="inlineStr">
         <is>
-          <t>18-07-263-018</t>
+          <t>18-07-258-027</t>
         </is>
       </c>
       <c r="N37" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>REL, HEALTH, PUB BUILDING</t>
         </is>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180004</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>3398</t>
+          <t/>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>23524</t>
+          <t/>
         </is>
       </c>
       <c r="T37" t="inlineStr">
@@ -4201,7 +4201,7 @@
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Appears in parcel 123-127 N Prospect St, Cambridge, IL</t>
+          <t>UNITED METHODIST CHURCH</t>
         </is>
       </c>
     </row>
@@ -4213,12 +4213,12 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>COUNTY CHECK</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>130</t>
+          <t>121</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -4228,7 +4228,7 @@
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Center</t>
+          <t>EXCHANGE</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
@@ -4268,22 +4268,22 @@
       </c>
       <c r="M38" t="inlineStr">
         <is>
-          <t>18-07-401-008</t>
+          <t>18-07-263-009</t>
         </is>
       </c>
       <c r="N38" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
@@ -4293,12 +4293,12 @@
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>2680</t>
+          <t>2163</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>22582</t>
+          <t>23537</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
@@ -4313,7 +4313,7 @@
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Appears on parcel as 130 W Center, IL</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -4325,22 +4325,22 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>GIS CHECK</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>123</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Center</t>
+          <t>EAST</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
@@ -4365,7 +4365,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -4380,22 +4380,22 @@
       </c>
       <c r="M39" t="inlineStr">
         <is>
-          <t>18-07-404-025</t>
+          <t>18-07-404-011</t>
         </is>
       </c>
       <c r="N39" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
@@ -4405,12 +4405,12 @@
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>13880</t>
+          <t>889</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>41082</t>
+          <t>4605</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
@@ -4425,7 +4425,7 @@
       </c>
       <c r="V39" t="inlineStr">
         <is>
-          <t>Falls under 135 W Center St, Cambridge, IL parcel</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -4437,12 +4437,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>GIS CHECK</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>124</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -4452,7 +4452,7 @@
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Center</t>
+          <t>EXCHANGE</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
@@ -4477,7 +4477,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -4492,22 +4492,22 @@
       </c>
       <c r="M40" t="inlineStr">
         <is>
-          <t>18-07-401-007</t>
+          <t>18-07-258-031</t>
         </is>
       </c>
       <c r="N40" t="inlineStr">
         <is>
-          <t>Rel, Health, Pub Building</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -4517,12 +4517,12 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t/>
+          <t>4697</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t/>
+          <t>36341</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
@@ -4537,7 +4537,7 @@
       </c>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Village Hall</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -4549,12 +4549,12 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>County Check</t>
+          <t>GIS CHECK</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>126</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -4564,7 +4564,7 @@
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Center</t>
+          <t>EXCHANGE</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
@@ -4589,7 +4589,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -4604,22 +4604,22 @@
       </c>
       <c r="M41" t="inlineStr">
         <is>
-          <t>18-07-404-025</t>
+          <t>18-07-258-031</t>
         </is>
       </c>
       <c r="N41" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
@@ -4629,12 +4629,12 @@
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>13880</t>
+          <t>4697</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>41082</t>
+          <t>36341</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
@@ -4649,7 +4649,7 @@
       </c>
       <c r="V41" t="inlineStr">
         <is>
-          <t/>
+          <t>APPEARS TO SHARE A BUILDING WITH 124 W EXCHANGE ST CAMBRIDGE IL</t>
         </is>
       </c>
     </row>
@@ -4661,22 +4661,22 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>COUNTY CHECK</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>136</t>
+          <t>127</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Center</t>
+          <t>EAST</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
@@ -4701,7 +4701,7 @@
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K42" t="inlineStr">
@@ -4716,22 +4716,22 @@
       </c>
       <c r="M42" t="inlineStr">
         <is>
-          <t>18-07-401-011</t>
+          <t>1807181026</t>
         </is>
       </c>
       <c r="N42" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>REL, HEALTH, PUB BUILDING</t>
         </is>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -4741,12 +4741,12 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>1491</t>
+          <t/>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>7578</t>
+          <t/>
         </is>
       </c>
       <c r="T42" t="inlineStr">
@@ -4761,7 +4761,7 @@
       </c>
       <c r="V42" t="inlineStr">
         <is>
-          <t/>
+          <t>CAMBRIDGE COMMUNITY HALL</t>
         </is>
       </c>
     </row>
@@ -4773,22 +4773,22 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>GIS CHECK</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>201</t>
+          <t>130</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>W</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Prospect</t>
+          <t>CENTER</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -4813,7 +4813,7 @@
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
@@ -4828,22 +4828,22 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>18-07-258-026</t>
+          <t>18-07-401-008</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
@@ -4853,12 +4853,12 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>3342</t>
+          <t>2680</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>67719</t>
+          <t>22582</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
@@ -4873,7 +4873,7 @@
       </c>
       <c r="V43" t="inlineStr">
         <is>
-          <t/>
+          <t>APPEARS ON PARCEL AS 130 W CENTER IL</t>
         </is>
       </c>
     </row>
@@ -4885,27 +4885,27 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>COUNTY CHECK</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>202</t>
+          <t>135</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>W</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>CENTER</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>St</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
@@ -4925,7 +4925,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -4940,22 +4940,22 @@
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>18-07-258-031</t>
+          <t>18-07-404-025</t>
         </is>
       </c>
       <c r="N44" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
@@ -4965,12 +4965,12 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>4697</t>
+          <t>13880</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>36341</t>
+          <t>41082</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
@@ -4985,7 +4985,7 @@
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>124 W Exchange St, Cambridge, IL</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -4997,12 +4997,12 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>County Check</t>
+          <t>GIS CHECK</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>209</t>
+          <t>201</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -5012,12 +5012,12 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>East</t>
+          <t>PROSPECT</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>RD</t>
+          <t>ST</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -5037,7 +5037,7 @@
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
@@ -5052,37 +5052,37 @@
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>18-07-281-007</t>
+          <t>18-07-258-026</t>
         </is>
       </c>
       <c r="N45" t="inlineStr">
         <is>
-          <t>Residential</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>180004</t>
+          <t>180005</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>5133</t>
+          <t>3342</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>21698</t>
+          <t>67719</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
@@ -5109,27 +5109,27 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>COUNTY CHECK</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>210</t>
+          <t>209</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>N</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Pleasant</t>
+          <t>EAST</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>ST</t>
+          <t>RD</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
@@ -5149,7 +5149,7 @@
       </c>
       <c r="J46" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K46" t="inlineStr">
@@ -5164,37 +5164,37 @@
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>18-07-433-012</t>
+          <t>18-07-281-007</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>180005</t>
+          <t>180004</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>2388</t>
+          <t>5133</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>7470</t>
+          <t>21698</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>County Check</t>
+          <t>GIS CHECK</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -5236,7 +5236,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Ridge</t>
+          <t>PLEASANT</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -5261,7 +5261,7 @@
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
@@ -5276,22 +5276,22 @@
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>1807408016</t>
+          <t>18-07-433-012</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Residential</t>
+          <t>COMMERCIAL</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
@@ -5301,12 +5301,12 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>6585</t>
+          <t>2388</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>36940</t>
+          <t>7470</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
@@ -5321,7 +5321,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>Probably 208 S Ridge in Ameren list</t>
+          <t/>
         </is>
       </c>
     </row>
@@ -5333,22 +5333,22 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>COUNTY CHECK</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>212</t>
+          <t>210</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>S</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Center</t>
+          <t>RIDGE</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -5388,22 +5388,22 @@
       </c>
       <c r="M48" t="inlineStr">
         <is>
-          <t>18-07-181-030</t>
+          <t>1807408016</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Rel, Health, Pub Building</t>
+          <t>Residential</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
@@ -5413,12 +5413,12 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t/>
+          <t>6585</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t/>
+          <t>36940</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
@@ -5433,7 +5433,7 @@
       </c>
       <c r="V48" t="inlineStr">
         <is>
-          <t>Public Library</t>
+          <t>PROBABLY 208 S RIDGE IN AMEREN LIST</t>
         </is>
       </c>
     </row>
@@ -5445,22 +5445,22 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>GIS Check</t>
+          <t>GIS CHECK</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>214</t>
+          <t>212</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>N</t>
+          <t>W</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Prospect</t>
+          <t>CENTER</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -5485,7 +5485,7 @@
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
@@ -5500,22 +5500,22 @@
       </c>
       <c r="M49" t="inlineStr">
         <is>
-          <t>18-07-260-001</t>
+          <t>18-07-181-030</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Commercial</t>
+          <t>REL, HEALTH, PUB BUILDING</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>Cambridge</t>
+          <t>CAMBRIDGE</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>Henry</t>
+          <t>HENRY</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
@@ -5525,12 +5525,12 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>1592</t>
+          <t/>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>1566</t>
+          <t/>
         </is>
       </c>
       <c r="T49" t="inlineStr">
@@ -5545,3367 +5545,7 @@
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>221</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>1st</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>1807308031</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>Residential</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>180004</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>8811</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>61522</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>292</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>18-08-351-008</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>Rel, Health, Pub Building</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>180007</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>GIS Check</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>301</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>18-07-227-002</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>180004</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>9885</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>58857</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>302</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>South</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>18-07-476-004</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>Residential</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>5358</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>44461</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>GIS Check</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>303</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>Center</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>18-07-426-008</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>6579</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>9474</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>303 1/2 E Center St, Cambridge, IL</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>GIS Check</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>305</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>Center</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>18-07-426-010</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>637</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>2096</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>310</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Ridge</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>18-07-454-008</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>Residential</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>6468</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>50079</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>311</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>1807226001</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>27626</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>Henry County Fair Association</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>312</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>CouRT St</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>18-07-433-021</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>5493</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>51595</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>319</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>CouRT St</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>18-07-328-028</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>Rel, Health, Pub Building</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>180004</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>GIS Check</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>321</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>North</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>18-07-176-018</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>180004</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>4389</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>38704</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>324</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>Locust</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>18-07-176-020</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>Residential</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>180004</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>5558</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>31587</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>GIS Check</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>401</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>West</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>18-07-102-019</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>5679</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>6608</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>Appears to be located within the unnamed parcel 18-07-102-019</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>GIS Check</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>Center</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>18-07-431-009</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>180004</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>4550</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>6585</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>413</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>East</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>18-07-132-006</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>Residential</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>180004</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>6351</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>44493</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>419</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E65" t="inlineStr">
-        <is>
-          <t>CouRT St</t>
-        </is>
-      </c>
-      <c r="F65" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G65" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>18-07-430-004</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P65" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R65" t="inlineStr">
-        <is>
-          <t>5309</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr">
-        <is>
-          <t>8665</t>
-        </is>
-      </c>
-      <c r="T65" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U65" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V65" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>500</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E66" t="inlineStr">
-        <is>
-          <t>CouRT St</t>
-        </is>
-      </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M66" t="inlineStr">
-        <is>
-          <t>18-07-435-002</t>
-        </is>
-      </c>
-      <c r="N66" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O66" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P66" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>12616</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>122687</t>
-        </is>
-      </c>
-      <c r="T66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>504</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>Prospect</t>
-        </is>
-      </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>18-07-203-004</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Rel, Health, Pub Building</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P67" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>180004</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="T67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>GIS Check</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>506</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>E</t>
-        </is>
-      </c>
-      <c r="E68" t="inlineStr">
-        <is>
-          <t>Center</t>
-        </is>
-      </c>
-      <c r="F68" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M68" t="inlineStr">
-        <is>
-          <t>18-07-431-005</t>
-        </is>
-      </c>
-      <c r="N68" t="inlineStr">
-        <is>
-          <t>Industrial</t>
-        </is>
-      </c>
-      <c r="O68" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P68" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q68" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R68" t="inlineStr">
-        <is>
-          <t>8093</t>
-        </is>
-      </c>
-      <c r="S68" t="inlineStr">
-        <is>
-          <t>13612</t>
-        </is>
-      </c>
-      <c r="T68" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U68" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V68" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E69" t="inlineStr">
-        <is>
-          <t>Prospect</t>
-        </is>
-      </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M69" t="inlineStr">
-        <is>
-          <t>1807203002</t>
-        </is>
-      </c>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Residential</t>
-        </is>
-      </c>
-      <c r="O69" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P69" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q69" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>2405</t>
-        </is>
-      </c>
-      <c r="S69" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
-      </c>
-      <c r="T69" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U69" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V69" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>515</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E70" t="inlineStr">
-        <is>
-          <t>Upper</t>
-        </is>
-      </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M70" t="inlineStr">
-        <is>
-          <t>18-07-102-016</t>
-        </is>
-      </c>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>Residential</t>
-        </is>
-      </c>
-      <c r="O70" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P70" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q70" t="inlineStr">
-        <is>
-          <t>180004</t>
-        </is>
-      </c>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>3795</t>
-        </is>
-      </c>
-      <c r="S70" t="inlineStr">
-        <is>
-          <t>42636</t>
-        </is>
-      </c>
-      <c r="T70" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U70" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>601</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>Holmes</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>18-07-201-010</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Residential</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q71" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>6953</t>
-        </is>
-      </c>
-      <c r="S71" t="inlineStr">
-        <is>
-          <t>26301</t>
-        </is>
-      </c>
-      <c r="T71" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U71" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>GIS Check</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>702</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>Center</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>17-12-200-015</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P72" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>170009</t>
-        </is>
-      </c>
-      <c r="R72" t="inlineStr">
-        <is>
-          <t>1640</t>
-        </is>
-      </c>
-      <c r="S72" t="inlineStr">
-        <is>
-          <t>389</t>
-        </is>
-      </c>
-      <c r="T72" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Shed</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>GIS Check</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>9701</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>Illinois Highway</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M73" t="inlineStr">
-        <is>
-          <t>18-18-200-002</t>
-        </is>
-      </c>
-      <c r="N73" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O73" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P73" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q73" t="inlineStr">
-        <is>
-          <t>180004</t>
-        </is>
-      </c>
-      <c r="R73" t="inlineStr">
-        <is>
-          <t>47530</t>
-        </is>
-      </c>
-      <c r="S73" t="inlineStr">
-        <is>
-          <t>113621</t>
-        </is>
-      </c>
-      <c r="T73" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U73" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>9701 IL Hwy 82, Cambridge, IL</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>11963</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E74" t="inlineStr">
-        <is>
-          <t>Bowling</t>
-        </is>
-      </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>RD</t>
-        </is>
-      </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>17-12-200-010</t>
-        </is>
-      </c>
-      <c r="N74" t="inlineStr">
-        <is>
-          <t>Residential</t>
-        </is>
-      </c>
-      <c r="O74" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P74" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q74" t="inlineStr">
-        <is>
-          <t>170009</t>
-        </is>
-      </c>
-      <c r="R74" t="inlineStr">
-        <is>
-          <t>5705</t>
-        </is>
-      </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>34883</t>
-        </is>
-      </c>
-      <c r="T74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>GIS Check</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>13036</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E75" t="inlineStr">
-        <is>
-          <t>IL-81</t>
-        </is>
-      </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>18-08-303-010</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R75" t="inlineStr">
-        <is>
-          <t>5300</t>
-        </is>
-      </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>86462</t>
-        </is>
-      </c>
-      <c r="T75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U75" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>Falls under parcel 133 S East Rd, Cambridge, IL</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>13081</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Illinois Highway</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M76" t="inlineStr">
-        <is>
-          <t>18-08-303-008</t>
-        </is>
-      </c>
-      <c r="N76" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P76" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R76" t="inlineStr">
-        <is>
-          <t>18338</t>
-        </is>
-      </c>
-      <c r="S76" t="inlineStr">
-        <is>
-          <t>232208</t>
-        </is>
-      </c>
-      <c r="T76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U76" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>Gold Star FS (Cambridge IL Service Center) For some reason the actual street IL-81 was cut off in the upload</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>GIS Check</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>13125</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E77" t="inlineStr">
-        <is>
-          <t>Illinois Highway</t>
-        </is>
-      </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>18-08-351-035</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Commercial</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P77" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>180007</t>
-        </is>
-      </c>
-      <c r="R77" t="inlineStr">
-        <is>
-          <t>12300</t>
-        </is>
-      </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>406300</t>
-        </is>
-      </c>
-      <c r="T77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U77" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V77" t="inlineStr">
-        <is>
-          <t>13125 IL Hwy 81, Cambridge, IL Appears to be labelled as parcel 101 N East St, Cambridge, IL</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>County Check</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>13429</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>IL-81</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M78" t="inlineStr">
-        <is>
-          <t>18-08-377-006</t>
-        </is>
-      </c>
-      <c r="N78" t="inlineStr">
-        <is>
-          <t>Industrial</t>
-        </is>
-      </c>
-      <c r="O78" t="inlineStr">
-        <is>
-          <t>Cambridge</t>
-        </is>
-      </c>
-      <c r="P78" t="inlineStr">
-        <is>
-          <t>Henry</t>
-        </is>
-      </c>
-      <c r="Q78" t="inlineStr">
-        <is>
-          <t>180006</t>
-        </is>
-      </c>
-      <c r="R78" t="inlineStr">
-        <is>
-          <t>18517</t>
-        </is>
-      </c>
-      <c r="S78" t="inlineStr">
-        <is>
-          <t>663464</t>
-        </is>
-      </c>
-      <c r="T78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>13429 IL Hwy 81, Cambridge, IL</t>
-        </is>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="B79" t="inlineStr">
-        <is>
-          <t>COUNTY CHECK</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="E79" t="inlineStr">
-        <is>
-          <t>PROSPECT</t>
-        </is>
-      </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>ST</t>
-        </is>
-      </c>
-      <c r="G79" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>CAMBRIDGE</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>IL</t>
-        </is>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>61238</t>
-        </is>
-      </c>
-      <c r="M79" t="inlineStr">
-        <is>
-          <t>18-07-402-003</t>
-        </is>
-      </c>
-      <c r="N79" t="inlineStr">
-        <is>
-          <t>COMMERCIAL</t>
-        </is>
-      </c>
-      <c r="O79" t="inlineStr">
-        <is>
-          <t>CAMBRIDGE</t>
-        </is>
-      </c>
-      <c r="P79" t="inlineStr">
-        <is>
-          <t>HENRY</t>
-        </is>
-      </c>
-      <c r="Q79" t="inlineStr">
-        <is>
-          <t>180005</t>
-        </is>
-      </c>
-      <c r="R79" t="inlineStr">
-        <is>
-          <t>8392</t>
-        </is>
-      </c>
-      <c r="S79" t="inlineStr">
-        <is>
-          <t>58617</t>
-        </is>
-      </c>
-      <c r="T79" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t/>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t/>
+          <t>PUBLIC LIBRARY</t>
         </is>
       </c>
     </row>
